--- a/capas/normativa.xlsx
+++ b/capas/normativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.usach\neuren\algoritmo_evaluador\docu_etapa1\capas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE75843-7898-452C-A713-7DDACE97E535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BF91E7-AC98-43DF-8456-BA985CF0EDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="249">
   <si>
     <t>AV</t>
   </si>
@@ -832,7 +832,7 @@
     <t>altura_maxima_pisos</t>
   </si>
   <si>
-    <t>alura_maxima_mts</t>
+    <t>altura_maxima_mts</t>
   </si>
 </sst>
 </file>
@@ -1259,11 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9054FFFE-B552-4315-B5E3-344121C87A6F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1284,9 +1283,8 @@
     <col min="15" max="15" width="18.5703125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="7" customWidth="1"/>
+    <col min="19" max="21" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,7 +1339,7 @@
       <c r="Q1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>248</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -1406,7 +1404,7 @@
       <c r="Q2" s="3">
         <v>3</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="7">
         <v>10.5</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -1471,7 +1469,7 @@
       <c r="Q3" s="3">
         <v>9</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="7">
         <v>31.5</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -1484,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>160</v>
       </c>
@@ -1536,7 +1534,7 @@
       <c r="Q4" s="3">
         <v>9</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="7">
         <v>31.5</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -1601,7 +1599,7 @@
       <c r="Q5" s="3">
         <v>3</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="7">
         <v>10.5</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -1666,7 +1664,7 @@
       <c r="Q6" s="3">
         <v>7</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="7">
         <v>20</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -1679,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>161</v>
       </c>
@@ -1731,7 +1729,7 @@
       <c r="Q7" s="3">
         <v>7</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="7">
         <v>20</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -1796,7 +1794,7 @@
       <c r="Q8" s="3">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="7">
         <v>10.5</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -1861,7 +1859,7 @@
       <c r="Q9" s="3">
         <v>7</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="7">
         <v>21</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -1874,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>162</v>
       </c>
@@ -1926,7 +1924,7 @@
       <c r="Q10" s="3">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="7">
         <v>14</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -1939,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
@@ -1991,7 +1989,7 @@
       <c r="Q11" s="3">
         <v>5</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="7">
         <v>17.5</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -2004,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>162</v>
       </c>
@@ -2056,7 +2054,7 @@
       <c r="Q12" s="3">
         <v>7</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="7">
         <v>24.5</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -2121,7 +2119,7 @@
       <c r="Q13" s="3">
         <v>3</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="7">
         <v>10.5</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -2134,7 +2132,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>163</v>
       </c>
@@ -2186,7 +2184,7 @@
       <c r="Q14" s="3">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="7">
         <v>10.5</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -2251,7 +2249,7 @@
       <c r="Q15" s="3">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="7">
         <v>10.5</v>
       </c>
       <c r="S15" s="1">
@@ -2264,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>164</v>
       </c>
@@ -2316,7 +2314,7 @@
       <c r="Q16" s="3">
         <v>3</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="7">
         <v>10.5</v>
       </c>
       <c r="S16" s="1">
@@ -2381,7 +2379,7 @@
       <c r="Q17" s="3">
         <v>15</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="7">
         <v>42</v>
       </c>
       <c r="S17" s="1">
@@ -2394,7 +2392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>164</v>
       </c>
@@ -2446,7 +2444,7 @@
       <c r="Q18" s="3">
         <v>12</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="7">
         <v>42</v>
       </c>
       <c r="S18" s="1">
@@ -2459,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>165</v>
       </c>
@@ -2511,7 +2509,7 @@
       <c r="Q19" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="7" t="s">
         <v>237</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -2576,7 +2574,7 @@
       <c r="Q20" s="3">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="7">
         <v>10.5</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -2641,7 +2639,7 @@
       <c r="Q21" s="3">
         <v>9</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="7">
         <v>31.5</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -2654,7 +2652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>166</v>
       </c>
@@ -2706,7 +2704,7 @@
       <c r="Q22" s="3">
         <v>9</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="7">
         <v>31.5</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -2771,7 +2769,7 @@
       <c r="Q23" s="3">
         <v>3</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="7">
         <v>10.5</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -2836,7 +2834,7 @@
       <c r="Q24" s="3">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="7">
         <v>14</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -2849,7 +2847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>167</v>
       </c>
@@ -2901,7 +2899,7 @@
       <c r="Q25" s="3">
         <v>4</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="7">
         <v>14</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -2966,7 +2964,7 @@
       <c r="Q26" s="3">
         <v>3</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="7">
         <v>10.5</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -2979,7 +2977,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>168</v>
       </c>
@@ -3031,7 +3029,7 @@
       <c r="Q27" s="3">
         <v>3</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="7">
         <v>10.5</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -3096,7 +3094,7 @@
       <c r="Q28" s="3">
         <v>3</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="7">
         <v>10.5</v>
       </c>
       <c r="S28" s="1">
@@ -3109,7 +3107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>169</v>
       </c>
@@ -3161,7 +3159,7 @@
       <c r="Q29" s="3">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="7">
         <v>10.5</v>
       </c>
       <c r="S29" s="1">
@@ -3226,7 +3224,7 @@
       <c r="Q30" s="3">
         <v>15</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="7">
         <v>42</v>
       </c>
       <c r="S30" s="1">
@@ -3239,7 +3237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>169</v>
       </c>
@@ -3291,7 +3289,7 @@
       <c r="Q31" s="3">
         <v>12</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="7">
         <v>42</v>
       </c>
       <c r="S31" s="1">
@@ -3356,7 +3354,7 @@
       <c r="Q32" s="3">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="7">
         <v>10.5</v>
       </c>
       <c r="S32" s="1" t="s">
@@ -3421,7 +3419,7 @@
       <c r="Q33" s="3">
         <v>9</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="7">
         <v>31.5</v>
       </c>
       <c r="S33" s="1" t="s">
@@ -3434,7 +3432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>170</v>
       </c>
@@ -3486,7 +3484,7 @@
       <c r="Q34" s="3">
         <v>9</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="7">
         <v>31.5</v>
       </c>
       <c r="S34" s="1" t="s">
@@ -3551,7 +3549,7 @@
       <c r="Q35" s="3">
         <v>3</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="7">
         <v>10.5</v>
       </c>
       <c r="S35" s="1" t="s">
@@ -3616,7 +3614,7 @@
       <c r="Q36" s="3">
         <v>7</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="7">
         <v>20</v>
       </c>
       <c r="S36" s="1" t="s">
@@ -3629,7 +3627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>171</v>
       </c>
@@ -3681,7 +3679,7 @@
       <c r="Q37" s="3">
         <v>7</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37" s="7">
         <v>20</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -3746,7 +3744,7 @@
       <c r="Q38" s="3">
         <v>3</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="7">
         <v>10.5</v>
       </c>
       <c r="S38" s="1" t="s">
@@ -3811,7 +3809,7 @@
       <c r="Q39" s="3">
         <v>4</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="7">
         <v>14</v>
       </c>
       <c r="S39" s="1" t="s">
@@ -3824,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>172</v>
       </c>
@@ -3876,7 +3874,7 @@
       <c r="Q40" s="3">
         <v>4</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="7">
         <v>14</v>
       </c>
       <c r="S40" s="1" t="s">
@@ -3941,7 +3939,7 @@
       <c r="Q41" s="3">
         <v>3</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="7">
         <v>10.5</v>
       </c>
       <c r="S41" s="1" t="s">
@@ -3954,7 +3952,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>173</v>
       </c>
@@ -4006,7 +4004,7 @@
       <c r="Q42" s="3">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="7">
         <v>10.5</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -4071,7 +4069,7 @@
       <c r="Q43" s="3">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="7">
         <v>10.5</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -4084,7 +4082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>174</v>
       </c>
@@ -4136,7 +4134,7 @@
       <c r="Q44" s="3">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="7">
         <v>10.5</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -4201,7 +4199,7 @@
       <c r="Q45" s="3">
         <v>15</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="7">
         <v>52.5</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -4214,7 +4212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>174</v>
       </c>
@@ -4266,7 +4264,7 @@
       <c r="Q46" s="3">
         <v>15</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="7">
         <v>52.5</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -4331,7 +4329,7 @@
       <c r="Q47" s="3">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="7">
         <v>10.5</v>
       </c>
       <c r="S47" s="1">
@@ -4344,7 +4342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>175</v>
       </c>
@@ -4396,7 +4394,7 @@
       <c r="Q48" s="3">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="7">
         <v>10.5</v>
       </c>
       <c r="S48" s="1">
@@ -4461,7 +4459,7 @@
       <c r="Q49" s="3">
         <v>15</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="7">
         <v>42</v>
       </c>
       <c r="S49" s="1">
@@ -4474,7 +4472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>175</v>
       </c>
@@ -4526,7 +4524,7 @@
       <c r="Q50" s="3">
         <v>12</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R50" s="7">
         <v>42</v>
       </c>
       <c r="S50" s="1">
@@ -4591,8 +4589,8 @@
       <c r="Q51" s="3">
         <v>13</v>
       </c>
-      <c r="R51" s="3" t="s">
-        <v>237</v>
+      <c r="R51" s="7">
+        <v>45.5</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>29</v>
@@ -4656,8 +4654,8 @@
       <c r="Q52" s="3">
         <v>7</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>237</v>
+      <c r="R52" s="7">
+        <v>24.5</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>29</v>
@@ -4721,7 +4719,7 @@
       <c r="Q53" s="3">
         <v>3</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R53" s="7">
         <v>10.5</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -4786,7 +4784,7 @@
       <c r="Q54" s="3">
         <v>9</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="7">
         <v>31.5</v>
       </c>
       <c r="S54" s="1" t="s">
@@ -4799,7 +4797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>176</v>
       </c>
@@ -4851,7 +4849,7 @@
       <c r="Q55" s="3">
         <v>9</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R55" s="7">
         <v>31.5</v>
       </c>
       <c r="S55" s="1" t="s">
@@ -4916,7 +4914,7 @@
       <c r="Q56" s="3">
         <v>3</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R56" s="7">
         <v>10.5</v>
       </c>
       <c r="S56" s="1" t="s">
@@ -4981,7 +4979,7 @@
       <c r="Q57" s="3">
         <v>7</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="7">
         <v>20</v>
       </c>
       <c r="S57" s="1" t="s">
@@ -4994,7 +4992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>177</v>
       </c>
@@ -5046,7 +5044,7 @@
       <c r="Q58" s="3">
         <v>7</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="7">
         <v>20</v>
       </c>
       <c r="S58" s="1" t="s">
@@ -5111,7 +5109,7 @@
       <c r="Q59" s="3">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="7">
         <v>10.5</v>
       </c>
       <c r="S59" s="1" t="s">
@@ -5176,7 +5174,7 @@
       <c r="Q60" s="3">
         <v>7</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="7">
         <v>21</v>
       </c>
       <c r="S60" s="1" t="s">
@@ -5189,7 +5187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>178</v>
       </c>
@@ -5241,7 +5239,7 @@
       <c r="Q61" s="3">
         <v>4</v>
       </c>
-      <c r="R61" s="3">
+      <c r="R61" s="7">
         <v>14</v>
       </c>
       <c r="S61" s="1" t="s">
@@ -5254,7 +5252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>178</v>
       </c>
@@ -5306,7 +5304,7 @@
       <c r="Q62" s="3">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="7">
         <v>17.5</v>
       </c>
       <c r="S62" s="1" t="s">
@@ -5319,7 +5317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>178</v>
       </c>
@@ -5371,7 +5369,7 @@
       <c r="Q63" s="3">
         <v>7</v>
       </c>
-      <c r="R63" s="3">
+      <c r="R63" s="7">
         <v>24.5</v>
       </c>
       <c r="S63" s="1" t="s">
@@ -5436,7 +5434,7 @@
       <c r="Q64" s="3">
         <v>3</v>
       </c>
-      <c r="R64" s="3">
+      <c r="R64" s="7">
         <v>10.5</v>
       </c>
       <c r="S64" s="1" t="s">
@@ -5501,7 +5499,7 @@
       <c r="Q65" s="3">
         <v>4</v>
       </c>
-      <c r="R65" s="3">
+      <c r="R65" s="7">
         <v>14</v>
       </c>
       <c r="S65" s="1" t="s">
@@ -5514,7 +5512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>179</v>
       </c>
@@ -5566,7 +5564,7 @@
       <c r="Q66" s="3">
         <v>4</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="7">
         <v>14</v>
       </c>
       <c r="S66" s="1" t="s">
@@ -5631,8 +5629,8 @@
       <c r="Q67" s="3">
         <v>3</v>
       </c>
-      <c r="R67" s="3" t="s">
-        <v>237</v>
+      <c r="R67" s="7">
+        <v>10.5</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>237</v>
@@ -5644,7 +5642,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>180</v>
       </c>
@@ -5696,7 +5694,7 @@
       <c r="Q68" s="3">
         <v>3</v>
       </c>
-      <c r="R68" s="3" t="s">
+      <c r="R68" s="7" t="s">
         <v>237</v>
       </c>
       <c r="S68" s="1" t="s">
@@ -5761,7 +5759,7 @@
       <c r="Q69" s="3">
         <v>3</v>
       </c>
-      <c r="R69" s="3">
+      <c r="R69" s="7">
         <v>10.5</v>
       </c>
       <c r="S69" s="1" t="s">
@@ -5774,7 +5772,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>181</v>
       </c>
@@ -5826,7 +5824,7 @@
       <c r="Q70" s="3">
         <v>3</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R70" s="7">
         <v>10.5</v>
       </c>
       <c r="S70" s="1" t="s">
@@ -5891,7 +5889,7 @@
       <c r="Q71" s="3">
         <v>3</v>
       </c>
-      <c r="R71" s="3">
+      <c r="R71" s="7">
         <v>10.5</v>
       </c>
       <c r="S71" s="1" t="s">
@@ -5904,7 +5902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>182</v>
       </c>
@@ -5956,7 +5954,7 @@
       <c r="Q72" s="3">
         <v>3</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="7">
         <v>10.5</v>
       </c>
       <c r="S72" s="1" t="s">
@@ -6021,7 +6019,7 @@
       <c r="Q73" s="3">
         <v>15</v>
       </c>
-      <c r="R73" s="3">
+      <c r="R73" s="7">
         <v>52.5</v>
       </c>
       <c r="S73" s="1" t="s">
@@ -6034,7 +6032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>182</v>
       </c>
@@ -6086,7 +6084,7 @@
       <c r="Q74" s="3">
         <v>15</v>
       </c>
-      <c r="R74" s="3">
+      <c r="R74" s="7">
         <v>52.5</v>
       </c>
       <c r="S74" s="1" t="s">
@@ -6151,7 +6149,7 @@
       <c r="Q75" s="3">
         <v>3</v>
       </c>
-      <c r="R75" s="3">
+      <c r="R75" s="7">
         <v>10.5</v>
       </c>
       <c r="S75" s="1">
@@ -6164,7 +6162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>183</v>
       </c>
@@ -6216,7 +6214,7 @@
       <c r="Q76" s="3">
         <v>3</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="7">
         <v>10.5</v>
       </c>
       <c r="S76" s="1">
@@ -6281,7 +6279,7 @@
       <c r="Q77" s="3">
         <v>15</v>
       </c>
-      <c r="R77" s="3">
+      <c r="R77" s="7">
         <v>42</v>
       </c>
       <c r="S77" s="1">
@@ -6294,7 +6292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>183</v>
       </c>
@@ -6346,7 +6344,7 @@
       <c r="Q78" s="3">
         <v>12</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R78" s="7">
         <v>42</v>
       </c>
       <c r="S78" s="1">
@@ -6359,7 +6357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>184</v>
       </c>
@@ -6411,7 +6409,7 @@
       <c r="Q79" s="3">
         <v>4</v>
       </c>
-      <c r="R79" s="3">
+      <c r="R79" s="7">
         <v>14</v>
       </c>
       <c r="S79" s="1" t="s">
@@ -6476,7 +6474,7 @@
       <c r="Q80" s="3">
         <v>15</v>
       </c>
-      <c r="R80" s="3">
+      <c r="R80" s="7">
         <v>52.5</v>
       </c>
       <c r="S80" s="1" t="s">
@@ -6489,7 +6487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>184</v>
       </c>
@@ -6541,7 +6539,7 @@
       <c r="Q81" s="3">
         <v>15</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="7">
         <v>52.5</v>
       </c>
       <c r="S81" s="1" t="s">
@@ -6606,7 +6604,7 @@
       <c r="Q82" s="3">
         <v>3</v>
       </c>
-      <c r="R82" s="3">
+      <c r="R82" s="7">
         <v>10.5</v>
       </c>
       <c r="S82" s="1" t="s">
@@ -6671,7 +6669,7 @@
       <c r="Q83" s="3">
         <v>7</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="7">
         <v>21</v>
       </c>
       <c r="S83" s="1" t="s">
@@ -6684,7 +6682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>185</v>
       </c>
@@ -6736,7 +6734,7 @@
       <c r="Q84" s="3">
         <v>4</v>
       </c>
-      <c r="R84" s="3">
+      <c r="R84" s="7">
         <v>14</v>
       </c>
       <c r="S84" s="1" t="s">
@@ -6749,7 +6747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>185</v>
       </c>
@@ -6801,7 +6799,7 @@
       <c r="Q85" s="3">
         <v>5</v>
       </c>
-      <c r="R85" s="3">
+      <c r="R85" s="7">
         <v>17.5</v>
       </c>
       <c r="S85" s="1" t="s">
@@ -6814,7 +6812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>185</v>
       </c>
@@ -6866,7 +6864,7 @@
       <c r="Q86" s="3">
         <v>7</v>
       </c>
-      <c r="R86" s="3">
+      <c r="R86" s="7">
         <v>24.5</v>
       </c>
       <c r="S86" s="1" t="s">
@@ -6931,7 +6929,7 @@
       <c r="Q87" s="3">
         <v>4</v>
       </c>
-      <c r="R87" s="3">
+      <c r="R87" s="7">
         <v>14</v>
       </c>
       <c r="S87" s="1" t="s">
@@ -6944,7 +6942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>186</v>
       </c>
@@ -6996,7 +6994,7 @@
       <c r="Q88" s="3">
         <v>4</v>
       </c>
-      <c r="R88" s="3">
+      <c r="R88" s="7">
         <v>14</v>
       </c>
       <c r="S88" s="1" t="s">
@@ -7061,7 +7059,7 @@
       <c r="Q89" s="3">
         <v>3</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="7">
         <v>10.5</v>
       </c>
       <c r="S89" s="1" t="s">
@@ -7126,7 +7124,7 @@
       <c r="Q90" s="3">
         <v>4</v>
       </c>
-      <c r="R90" s="3">
+      <c r="R90" s="7">
         <v>14</v>
       </c>
       <c r="S90" s="1" t="s">
@@ -7139,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>186</v>
       </c>
@@ -7191,7 +7189,7 @@
       <c r="Q91" s="3">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="7">
         <v>14</v>
       </c>
       <c r="S91" s="1" t="s">
@@ -7256,7 +7254,7 @@
       <c r="Q92" s="3">
         <v>3</v>
       </c>
-      <c r="R92" s="3">
+      <c r="R92" s="7">
         <v>10.5</v>
       </c>
       <c r="S92" s="1" t="s">
@@ -7269,7 +7267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>187</v>
       </c>
@@ -7321,7 +7319,7 @@
       <c r="Q93" s="3">
         <v>3</v>
       </c>
-      <c r="R93" s="3">
+      <c r="R93" s="7">
         <v>10.5</v>
       </c>
       <c r="S93" s="1" t="s">
@@ -7386,7 +7384,7 @@
       <c r="Q94" s="3">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="7">
         <v>10.5</v>
       </c>
       <c r="S94" s="1" t="s">
@@ -7399,7 +7397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>187</v>
       </c>
@@ -7451,7 +7449,7 @@
       <c r="Q95" s="3">
         <v>3</v>
       </c>
-      <c r="R95" s="3">
+      <c r="R95" s="7">
         <v>10.5</v>
       </c>
       <c r="S95" s="1" t="s">
@@ -7516,7 +7514,7 @@
       <c r="Q96" s="3">
         <v>4</v>
       </c>
-      <c r="R96" s="3">
+      <c r="R96" s="7">
         <v>14</v>
       </c>
       <c r="S96" s="1" t="s">
@@ -7529,7 +7527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>187</v>
       </c>
@@ -7581,7 +7579,7 @@
       <c r="Q97" s="3">
         <v>4</v>
       </c>
-      <c r="R97" s="3">
+      <c r="R97" s="7">
         <v>14</v>
       </c>
       <c r="S97" s="1" t="s">
@@ -7646,7 +7644,7 @@
       <c r="Q98" s="3">
         <v>3</v>
       </c>
-      <c r="R98" s="3">
+      <c r="R98" s="7">
         <v>10.5</v>
       </c>
       <c r="S98" s="1" t="s">
@@ -7711,7 +7709,7 @@
       <c r="Q99" s="3">
         <v>3</v>
       </c>
-      <c r="R99" s="3">
+      <c r="R99" s="7">
         <v>10.5</v>
       </c>
       <c r="S99" s="1" t="s">
@@ -7724,7 +7722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>188</v>
       </c>
@@ -7776,7 +7774,7 @@
       <c r="Q100" s="3">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="7">
         <v>10.5</v>
       </c>
       <c r="S100" s="1" t="s">
@@ -7789,7 +7787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>188</v>
       </c>
@@ -7841,7 +7839,7 @@
       <c r="Q101" s="3">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="7">
         <v>10.5</v>
       </c>
       <c r="S101" s="1" t="s">
@@ -7906,7 +7904,7 @@
       <c r="Q102" s="3">
         <v>4</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="7">
         <v>14</v>
       </c>
       <c r="S102" s="1" t="s">
@@ -7919,7 +7917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>188</v>
       </c>
@@ -7971,7 +7969,7 @@
       <c r="Q103" s="3">
         <v>4</v>
       </c>
-      <c r="R103" s="3">
+      <c r="R103" s="7">
         <v>14</v>
       </c>
       <c r="S103" s="1" t="s">
@@ -8036,7 +8034,7 @@
       <c r="Q104" s="3">
         <v>5</v>
       </c>
-      <c r="R104" s="3">
+      <c r="R104" s="7">
         <v>17.5</v>
       </c>
       <c r="S104" s="1" t="s">
@@ -8049,7 +8047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>189</v>
       </c>
@@ -8101,7 +8099,7 @@
       <c r="Q105" s="3">
         <v>5</v>
       </c>
-      <c r="R105" s="3">
+      <c r="R105" s="7">
         <v>17.5</v>
       </c>
       <c r="S105" s="1" t="s">
@@ -8166,7 +8164,7 @@
       <c r="Q106" s="3">
         <v>3</v>
       </c>
-      <c r="R106" s="3">
+      <c r="R106" s="7">
         <v>10.5</v>
       </c>
       <c r="S106" s="1" t="s">
@@ -8179,7 +8177,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>189</v>
       </c>
@@ -8231,7 +8229,7 @@
       <c r="Q107" s="3">
         <v>3</v>
       </c>
-      <c r="R107" s="3">
+      <c r="R107" s="7">
         <v>10.5</v>
       </c>
       <c r="S107" s="1" t="s">
@@ -8296,7 +8294,7 @@
       <c r="Q108" s="3">
         <v>5</v>
       </c>
-      <c r="R108" s="3">
+      <c r="R108" s="7">
         <v>17.5</v>
       </c>
       <c r="S108" s="1" t="s">
@@ -8361,7 +8359,7 @@
       <c r="Q109" s="3">
         <v>3</v>
       </c>
-      <c r="R109" s="3">
+      <c r="R109" s="7">
         <v>10.5</v>
       </c>
       <c r="S109" s="1" t="s">
@@ -8426,7 +8424,7 @@
       <c r="Q110" s="3">
         <v>3</v>
       </c>
-      <c r="R110" s="3">
+      <c r="R110" s="7">
         <v>10.5</v>
       </c>
       <c r="S110" s="1" t="s">
@@ -8491,7 +8489,7 @@
       <c r="Q111" s="3">
         <v>3</v>
       </c>
-      <c r="R111" s="3">
+      <c r="R111" s="7">
         <v>10.5</v>
       </c>
       <c r="S111" s="1" t="s">
@@ -8504,7 +8502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>191</v>
       </c>
@@ -8556,7 +8554,7 @@
       <c r="Q112" s="3">
         <v>3</v>
       </c>
-      <c r="R112" s="3">
+      <c r="R112" s="7">
         <v>10.5</v>
       </c>
       <c r="S112" s="1" t="s">
@@ -8621,7 +8619,7 @@
       <c r="Q113" s="3">
         <v>3</v>
       </c>
-      <c r="R113" s="3">
+      <c r="R113" s="7">
         <v>10.5</v>
       </c>
       <c r="S113" s="1" t="s">
@@ -8634,7 +8632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>191</v>
       </c>
@@ -8686,7 +8684,7 @@
       <c r="Q114" s="3">
         <v>3</v>
       </c>
-      <c r="R114" s="3">
+      <c r="R114" s="7">
         <v>10.5</v>
       </c>
       <c r="S114" s="1" t="s">
@@ -8751,7 +8749,7 @@
       <c r="Q115" s="3">
         <v>4</v>
       </c>
-      <c r="R115" s="3">
+      <c r="R115" s="7">
         <v>14</v>
       </c>
       <c r="S115" s="1" t="s">
@@ -8764,7 +8762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>191</v>
       </c>
@@ -8816,7 +8814,7 @@
       <c r="Q116" s="3">
         <v>4</v>
       </c>
-      <c r="R116" s="3">
+      <c r="R116" s="7">
         <v>14</v>
       </c>
       <c r="S116" s="1" t="s">
@@ -8881,7 +8879,7 @@
       <c r="Q117" s="3">
         <v>3</v>
       </c>
-      <c r="R117" s="3">
+      <c r="R117" s="7">
         <v>10.5</v>
       </c>
       <c r="S117" s="1" t="s">
@@ -8946,7 +8944,7 @@
       <c r="Q118" s="3">
         <v>3</v>
       </c>
-      <c r="R118" s="3">
+      <c r="R118" s="7">
         <v>10.5</v>
       </c>
       <c r="S118" s="1" t="s">
@@ -8959,7 +8957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>192</v>
       </c>
@@ -9011,7 +9009,7 @@
       <c r="Q119" s="3">
         <v>3</v>
       </c>
-      <c r="R119" s="3">
+      <c r="R119" s="7">
         <v>10.5</v>
       </c>
       <c r="S119" s="1" t="s">
@@ -9024,7 +9022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>192</v>
       </c>
@@ -9076,7 +9074,7 @@
       <c r="Q120" s="3">
         <v>3</v>
       </c>
-      <c r="R120" s="3">
+      <c r="R120" s="7">
         <v>10.5</v>
       </c>
       <c r="S120" s="1" t="s">
@@ -9141,7 +9139,7 @@
       <c r="Q121" s="3">
         <v>4</v>
       </c>
-      <c r="R121" s="3">
+      <c r="R121" s="7">
         <v>14</v>
       </c>
       <c r="S121" s="1" t="s">
@@ -9154,7 +9152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>192</v>
       </c>
@@ -9206,7 +9204,7 @@
       <c r="Q122" s="3">
         <v>4</v>
       </c>
-      <c r="R122" s="3">
+      <c r="R122" s="7">
         <v>14</v>
       </c>
       <c r="S122" s="1" t="s">
@@ -9271,7 +9269,7 @@
       <c r="Q123" s="3">
         <v>3</v>
       </c>
-      <c r="R123" s="3">
+      <c r="R123" s="7">
         <v>10.5</v>
       </c>
       <c r="S123" s="1" t="s">
@@ -9284,7 +9282,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>193</v>
       </c>
@@ -9336,7 +9334,7 @@
       <c r="Q124" s="3">
         <v>3</v>
       </c>
-      <c r="R124" s="3">
+      <c r="R124" s="7">
         <v>10.5</v>
       </c>
       <c r="S124" s="1" t="s">
@@ -9349,7 +9347,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>194</v>
       </c>
@@ -9401,7 +9399,7 @@
       <c r="Q125" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R125" s="3" t="s">
+      <c r="R125" s="7" t="s">
         <v>237</v>
       </c>
       <c r="S125" s="1" t="s">
@@ -9414,7 +9412,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>195</v>
       </c>
@@ -9466,7 +9464,7 @@
       <c r="Q126" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R126" s="3" t="s">
+      <c r="R126" s="7" t="s">
         <v>237</v>
       </c>
       <c r="S126" s="1" t="s">
@@ -9479,7 +9477,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>196</v>
       </c>
@@ -9531,7 +9529,7 @@
       <c r="Q127" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R127" s="3" t="s">
+      <c r="R127" s="7" t="s">
         <v>237</v>
       </c>
       <c r="S127" s="1" t="s">
@@ -9544,7 +9542,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>197</v>
       </c>
@@ -9596,7 +9594,7 @@
       <c r="Q128" s="3">
         <v>5</v>
       </c>
-      <c r="R128" s="3">
+      <c r="R128" s="7">
         <v>17.5</v>
       </c>
       <c r="S128" s="1" t="s">
@@ -9609,7 +9607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>198</v>
       </c>
@@ -9661,7 +9659,7 @@
       <c r="Q129" s="3">
         <v>5</v>
       </c>
-      <c r="R129" s="3">
+      <c r="R129" s="7">
         <v>17.5</v>
       </c>
       <c r="S129" s="1" t="s">
@@ -9674,7 +9672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>198</v>
       </c>
@@ -9726,7 +9724,7 @@
       <c r="Q130" s="3">
         <v>5</v>
       </c>
-      <c r="R130" s="3">
+      <c r="R130" s="7">
         <v>17.5</v>
       </c>
       <c r="S130" s="1" t="s">
@@ -9739,7 +9737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>198</v>
       </c>
@@ -9791,7 +9789,7 @@
       <c r="Q131" s="3">
         <v>4</v>
       </c>
-      <c r="R131" s="3">
+      <c r="R131" s="7">
         <v>14</v>
       </c>
       <c r="S131" s="1" t="s">
@@ -9804,7 +9802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>198</v>
       </c>
@@ -9856,7 +9854,7 @@
       <c r="Q132" s="3">
         <v>15</v>
       </c>
-      <c r="R132" s="3">
+      <c r="R132" s="7">
         <v>52.5</v>
       </c>
       <c r="S132" s="1" t="s">
@@ -9869,7 +9867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>198</v>
       </c>
@@ -9921,7 +9919,7 @@
       <c r="Q133" s="3">
         <v>4</v>
       </c>
-      <c r="R133" s="3">
+      <c r="R133" s="7">
         <v>14</v>
       </c>
       <c r="S133" s="1" t="s">
@@ -9934,7 +9932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>198</v>
       </c>
@@ -9986,7 +9984,7 @@
       <c r="Q134" s="3">
         <v>15</v>
       </c>
-      <c r="R134" s="3">
+      <c r="R134" s="7">
         <v>52.5</v>
       </c>
       <c r="S134" s="1" t="s">
@@ -10051,7 +10049,7 @@
       <c r="Q135" s="3">
         <v>4</v>
       </c>
-      <c r="R135" s="3">
+      <c r="R135" s="7">
         <v>14</v>
       </c>
       <c r="S135" s="1" t="s">
@@ -10116,7 +10114,7 @@
       <c r="Q136" s="3">
         <v>3</v>
       </c>
-      <c r="R136" s="3">
+      <c r="R136" s="7">
         <v>10.5</v>
       </c>
       <c r="S136" s="1" t="s">
@@ -10181,7 +10179,7 @@
       <c r="Q137" s="3">
         <v>7</v>
       </c>
-      <c r="R137" s="3">
+      <c r="R137" s="7">
         <v>20</v>
       </c>
       <c r="S137" s="1" t="s">
@@ -10194,7 +10192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>199</v>
       </c>
@@ -10246,7 +10244,7 @@
       <c r="Q138" s="3">
         <v>7</v>
       </c>
-      <c r="R138" s="3">
+      <c r="R138" s="7">
         <v>20</v>
       </c>
       <c r="S138" s="1" t="s">
@@ -10311,7 +10309,7 @@
       <c r="Q139" s="3">
         <v>3</v>
       </c>
-      <c r="R139" s="3">
+      <c r="R139" s="7">
         <v>10.5</v>
       </c>
       <c r="S139" s="1" t="s">
@@ -10324,7 +10322,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>200</v>
       </c>
@@ -10376,7 +10374,7 @@
       <c r="Q140" s="3">
         <v>3</v>
       </c>
-      <c r="R140" s="3">
+      <c r="R140" s="7">
         <v>10.5</v>
       </c>
       <c r="S140" s="1" t="s">
@@ -10441,7 +10439,7 @@
       <c r="Q141" s="3">
         <v>3</v>
       </c>
-      <c r="R141" s="3">
+      <c r="R141" s="7">
         <v>10.5</v>
       </c>
       <c r="S141" s="1" t="s">
@@ -10454,7 +10452,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>201</v>
       </c>
@@ -10506,7 +10504,7 @@
       <c r="Q142" s="3">
         <v>3</v>
       </c>
-      <c r="R142" s="3">
+      <c r="R142" s="7">
         <v>10.5</v>
       </c>
       <c r="S142" s="1" t="s">
@@ -10571,7 +10569,7 @@
       <c r="Q143" s="3">
         <v>3</v>
       </c>
-      <c r="R143" s="3">
+      <c r="R143" s="7">
         <v>10.5</v>
       </c>
       <c r="S143" s="1" t="s">
@@ -10636,7 +10634,7 @@
       <c r="Q144" s="3">
         <v>7</v>
       </c>
-      <c r="R144" s="3">
+      <c r="R144" s="7">
         <v>20</v>
       </c>
       <c r="S144" s="1" t="s">
@@ -10649,7 +10647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>202</v>
       </c>
@@ -10701,7 +10699,7 @@
       <c r="Q145" s="3">
         <v>7</v>
       </c>
-      <c r="R145" s="3">
+      <c r="R145" s="7">
         <v>20</v>
       </c>
       <c r="S145" s="1" t="s">
@@ -10766,7 +10764,7 @@
       <c r="Q146" s="3">
         <v>7</v>
       </c>
-      <c r="R146" s="3">
+      <c r="R146" s="7">
         <v>21</v>
       </c>
       <c r="S146" s="1" t="s">
@@ -10779,7 +10777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>203</v>
       </c>
@@ -10831,7 +10829,7 @@
       <c r="Q147" s="3">
         <v>4</v>
       </c>
-      <c r="R147" s="3">
+      <c r="R147" s="7">
         <v>14</v>
       </c>
       <c r="S147" s="1" t="s">
@@ -10844,7 +10842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>203</v>
       </c>
@@ -10896,7 +10894,7 @@
       <c r="Q148" s="3">
         <v>5</v>
       </c>
-      <c r="R148" s="3">
+      <c r="R148" s="7">
         <v>17.5</v>
       </c>
       <c r="S148" s="1" t="s">
@@ -10909,7 +10907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>203</v>
       </c>
@@ -10961,7 +10959,7 @@
       <c r="Q149" s="3">
         <v>7</v>
       </c>
-      <c r="R149" s="3">
+      <c r="R149" s="7">
         <v>24.5</v>
       </c>
       <c r="S149" s="1" t="s">
@@ -11026,7 +11024,7 @@
       <c r="Q150" s="3">
         <v>3</v>
       </c>
-      <c r="R150" s="3">
+      <c r="R150" s="7">
         <v>10.5</v>
       </c>
       <c r="S150" s="1" t="s">
@@ -11091,7 +11089,7 @@
       <c r="Q151" s="3">
         <v>3</v>
       </c>
-      <c r="R151" s="3">
+      <c r="R151" s="7">
         <v>10.5</v>
       </c>
       <c r="S151" s="1" t="s">
@@ -11104,7 +11102,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>204</v>
       </c>
@@ -11156,7 +11154,7 @@
       <c r="Q152" s="3">
         <v>3</v>
       </c>
-      <c r="R152" s="3">
+      <c r="R152" s="7">
         <v>10.5</v>
       </c>
       <c r="S152" s="1" t="s">
@@ -11221,7 +11219,7 @@
       <c r="Q153" s="3">
         <v>3</v>
       </c>
-      <c r="R153" s="3">
+      <c r="R153" s="7">
         <v>10.5</v>
       </c>
       <c r="S153" s="1" t="s">
@@ -11234,7 +11232,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>205</v>
       </c>
@@ -11286,7 +11284,7 @@
       <c r="Q154" s="3">
         <v>3</v>
       </c>
-      <c r="R154" s="3">
+      <c r="R154" s="7">
         <v>10.5</v>
       </c>
       <c r="S154" s="1" t="s">
@@ -11351,7 +11349,7 @@
       <c r="Q155" s="3">
         <v>3</v>
       </c>
-      <c r="R155" s="3">
+      <c r="R155" s="7">
         <v>10.5</v>
       </c>
       <c r="S155" s="1" t="s">
@@ -11416,7 +11414,7 @@
       <c r="Q156" s="3">
         <v>15</v>
       </c>
-      <c r="R156" s="3">
+      <c r="R156" s="7">
         <v>42</v>
       </c>
       <c r="S156" s="1" t="s">
@@ -11429,7 +11427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>206</v>
       </c>
@@ -11481,7 +11479,7 @@
       <c r="Q157" s="3">
         <v>12</v>
       </c>
-      <c r="R157" s="3">
+      <c r="R157" s="7">
         <v>42</v>
       </c>
       <c r="S157" s="1" t="s">
@@ -11546,7 +11544,7 @@
       <c r="Q158" s="3">
         <v>15</v>
       </c>
-      <c r="R158" s="3">
+      <c r="R158" s="7">
         <v>52.5</v>
       </c>
       <c r="S158" s="1" t="s">
@@ -11559,7 +11557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>207</v>
       </c>
@@ -11611,7 +11609,7 @@
       <c r="Q159" s="3">
         <v>15</v>
       </c>
-      <c r="R159" s="3">
+      <c r="R159" s="7">
         <v>52.5</v>
       </c>
       <c r="S159" s="1" t="s">
@@ -11676,7 +11674,7 @@
       <c r="Q160" s="3">
         <v>15</v>
       </c>
-      <c r="R160" s="3">
+      <c r="R160" s="7">
         <v>52.5</v>
       </c>
       <c r="S160" s="1" t="s">
@@ -11689,7 +11687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>207</v>
       </c>
@@ -11741,7 +11739,7 @@
       <c r="Q161" s="3">
         <v>15</v>
       </c>
-      <c r="R161" s="3">
+      <c r="R161" s="7">
         <v>52.5</v>
       </c>
       <c r="S161" s="1" t="s">
@@ -11806,7 +11804,7 @@
       <c r="Q162" s="3">
         <v>3</v>
       </c>
-      <c r="R162" s="3">
+      <c r="R162" s="7">
         <v>10.5</v>
       </c>
       <c r="S162" s="1" t="s">
@@ -11819,7 +11817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>208</v>
       </c>
@@ -11871,7 +11869,7 @@
       <c r="Q163" s="3">
         <v>3</v>
       </c>
-      <c r="R163" s="3">
+      <c r="R163" s="7">
         <v>10.5</v>
       </c>
       <c r="S163" s="1" t="s">
@@ -11936,7 +11934,7 @@
       <c r="Q164" s="3">
         <v>15</v>
       </c>
-      <c r="R164" s="3">
+      <c r="R164" s="7">
         <v>52.5</v>
       </c>
       <c r="S164" s="1" t="s">
@@ -11949,7 +11947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>208</v>
       </c>
@@ -12001,7 +11999,7 @@
       <c r="Q165" s="3">
         <v>15</v>
       </c>
-      <c r="R165" s="3">
+      <c r="R165" s="7">
         <v>52.5</v>
       </c>
       <c r="S165" s="1" t="s">
@@ -12066,7 +12064,7 @@
       <c r="Q166" s="3">
         <v>3</v>
       </c>
-      <c r="R166" s="3">
+      <c r="R166" s="7">
         <v>10.5</v>
       </c>
       <c r="S166" s="1">
@@ -12079,7 +12077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>209</v>
       </c>
@@ -12131,7 +12129,7 @@
       <c r="Q167" s="3">
         <v>3</v>
       </c>
-      <c r="R167" s="3">
+      <c r="R167" s="7">
         <v>10.5</v>
       </c>
       <c r="S167" s="1">
@@ -12196,7 +12194,7 @@
       <c r="Q168" s="3">
         <v>15</v>
       </c>
-      <c r="R168" s="3">
+      <c r="R168" s="7">
         <v>42</v>
       </c>
       <c r="S168" s="1">
@@ -12209,7 +12207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>209</v>
       </c>
@@ -12261,7 +12259,7 @@
       <c r="Q169" s="3">
         <v>12</v>
       </c>
-      <c r="R169" s="3">
+      <c r="R169" s="7">
         <v>42</v>
       </c>
       <c r="S169" s="1">
@@ -12326,7 +12324,7 @@
       <c r="Q170" s="3">
         <v>15</v>
       </c>
-      <c r="R170" s="3">
+      <c r="R170" s="7">
         <v>52.5</v>
       </c>
       <c r="S170" s="1" t="s">
@@ -12339,7 +12337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>210</v>
       </c>
@@ -12391,7 +12389,7 @@
       <c r="Q171" s="3">
         <v>15</v>
       </c>
-      <c r="R171" s="3">
+      <c r="R171" s="7">
         <v>52.5</v>
       </c>
       <c r="S171" s="1" t="s">
@@ -12404,7 +12402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>210</v>
       </c>
@@ -12456,7 +12454,7 @@
       <c r="Q172" s="3">
         <v>5</v>
       </c>
-      <c r="R172" s="3">
+      <c r="R172" s="7">
         <v>17.5</v>
       </c>
       <c r="S172" s="1" t="s">
@@ -12521,7 +12519,7 @@
       <c r="Q173" s="3">
         <v>17</v>
       </c>
-      <c r="R173" s="3">
+      <c r="R173" s="7">
         <v>59.5</v>
       </c>
       <c r="S173" s="1" t="s">
@@ -12534,7 +12532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>210</v>
       </c>
@@ -12586,7 +12584,7 @@
       <c r="Q174" s="3">
         <v>17</v>
       </c>
-      <c r="R174" s="3">
+      <c r="R174" s="7">
         <v>59.5</v>
       </c>
       <c r="S174" s="1" t="s">
@@ -12651,7 +12649,7 @@
       <c r="Q175" s="3">
         <v>2</v>
       </c>
-      <c r="R175" s="3">
+      <c r="R175" s="7">
         <v>7</v>
       </c>
       <c r="S175" s="1" t="s">
@@ -12664,7 +12662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>210</v>
       </c>
@@ -12716,7 +12714,7 @@
       <c r="Q176" s="3">
         <v>2</v>
       </c>
-      <c r="R176" s="3">
+      <c r="R176" s="7">
         <v>7</v>
       </c>
       <c r="S176" s="1" t="s">
@@ -12781,7 +12779,7 @@
       <c r="Q177" s="3">
         <v>3</v>
       </c>
-      <c r="R177" s="3">
+      <c r="R177" s="7">
         <v>10.5</v>
       </c>
       <c r="S177" s="1" t="s">
@@ -12846,7 +12844,7 @@
       <c r="Q178" s="3">
         <v>9</v>
       </c>
-      <c r="R178" s="3">
+      <c r="R178" s="7">
         <v>31.5</v>
       </c>
       <c r="S178" s="1" t="s">
@@ -12859,7 +12857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>211</v>
       </c>
@@ -12911,7 +12909,7 @@
       <c r="Q179" s="3">
         <v>9</v>
       </c>
-      <c r="R179" s="3">
+      <c r="R179" s="7">
         <v>31.5</v>
       </c>
       <c r="S179" s="1" t="s">
@@ -12976,7 +12974,7 @@
       <c r="Q180" s="3">
         <v>3</v>
       </c>
-      <c r="R180" s="3">
+      <c r="R180" s="7">
         <v>10.5</v>
       </c>
       <c r="S180" s="1" t="s">
@@ -13041,7 +13039,7 @@
       <c r="Q181" s="3">
         <v>7</v>
       </c>
-      <c r="R181" s="3">
+      <c r="R181" s="7">
         <v>20</v>
       </c>
       <c r="S181" s="1" t="s">
@@ -13054,7 +13052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>212</v>
       </c>
@@ -13106,7 +13104,7 @@
       <c r="Q182" s="3">
         <v>7</v>
       </c>
-      <c r="R182" s="3">
+      <c r="R182" s="7">
         <v>20</v>
       </c>
       <c r="S182" s="1" t="s">
@@ -13171,7 +13169,7 @@
       <c r="Q183" s="3">
         <v>3</v>
       </c>
-      <c r="R183" s="3">
+      <c r="R183" s="7">
         <v>10.5</v>
       </c>
       <c r="S183" s="1" t="s">
@@ -13236,7 +13234,7 @@
       <c r="Q184" s="3">
         <v>7</v>
       </c>
-      <c r="R184" s="3">
+      <c r="R184" s="7">
         <v>21</v>
       </c>
       <c r="S184" s="1" t="s">
@@ -13249,7 +13247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>213</v>
       </c>
@@ -13301,7 +13299,7 @@
       <c r="Q185" s="3">
         <v>4</v>
       </c>
-      <c r="R185" s="3">
+      <c r="R185" s="7">
         <v>14</v>
       </c>
       <c r="S185" s="1" t="s">
@@ -13314,7 +13312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>213</v>
       </c>
@@ -13366,7 +13364,7 @@
       <c r="Q186" s="3">
         <v>5</v>
       </c>
-      <c r="R186" s="3">
+      <c r="R186" s="7">
         <v>17.5</v>
       </c>
       <c r="S186" s="1" t="s">
@@ -13379,7 +13377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>213</v>
       </c>
@@ -13431,7 +13429,7 @@
       <c r="Q187" s="3">
         <v>7</v>
       </c>
-      <c r="R187" s="3">
+      <c r="R187" s="7">
         <v>24.5</v>
       </c>
       <c r="S187" s="1" t="s">
@@ -13496,7 +13494,7 @@
       <c r="Q188" s="3">
         <v>3</v>
       </c>
-      <c r="R188" s="3">
+      <c r="R188" s="7">
         <v>10.5</v>
       </c>
       <c r="S188" s="1" t="s">
@@ -13561,7 +13559,7 @@
       <c r="Q189" s="3">
         <v>4</v>
       </c>
-      <c r="R189" s="3">
+      <c r="R189" s="7">
         <v>14</v>
       </c>
       <c r="S189" s="1" t="s">
@@ -13574,7 +13572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>214</v>
       </c>
@@ -13626,7 +13624,7 @@
       <c r="Q190" s="3">
         <v>4</v>
       </c>
-      <c r="R190" s="3">
+      <c r="R190" s="7">
         <v>14</v>
       </c>
       <c r="S190" s="1" t="s">
@@ -13691,7 +13689,7 @@
       <c r="Q191" s="3">
         <v>3</v>
       </c>
-      <c r="R191" s="3">
+      <c r="R191" s="7">
         <v>10.5</v>
       </c>
       <c r="S191" s="1" t="s">
@@ -13704,7 +13702,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>215</v>
       </c>
@@ -13756,7 +13754,7 @@
       <c r="Q192" s="3">
         <v>3</v>
       </c>
-      <c r="R192" s="3">
+      <c r="R192" s="7">
         <v>10.5</v>
       </c>
       <c r="S192" s="1" t="s">
@@ -13821,7 +13819,7 @@
       <c r="Q193" s="3">
         <v>3</v>
       </c>
-      <c r="R193" s="3">
+      <c r="R193" s="7">
         <v>10.5</v>
       </c>
       <c r="S193" s="1" t="s">
@@ -13834,7 +13832,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>216</v>
       </c>
@@ -13886,7 +13884,7 @@
       <c r="Q194" s="3">
         <v>3</v>
       </c>
-      <c r="R194" s="3">
+      <c r="R194" s="7">
         <v>10.5</v>
       </c>
       <c r="S194" s="1" t="s">
@@ -13899,7 +13897,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>217</v>
       </c>
@@ -13951,7 +13949,7 @@
       <c r="Q195" s="3">
         <v>4</v>
       </c>
-      <c r="R195" s="3">
+      <c r="R195" s="7">
         <v>14</v>
       </c>
       <c r="S195" s="1" t="s">
@@ -14016,7 +14014,7 @@
       <c r="Q196" s="3">
         <v>15</v>
       </c>
-      <c r="R196" s="3">
+      <c r="R196" s="7">
         <v>52.5</v>
       </c>
       <c r="S196" s="1" t="s">
@@ -14029,7 +14027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>217</v>
       </c>
@@ -14081,7 +14079,7 @@
       <c r="Q197" s="3">
         <v>15</v>
       </c>
-      <c r="R197" s="3">
+      <c r="R197" s="7">
         <v>52.5</v>
       </c>
       <c r="S197" s="1" t="s">
@@ -14094,7 +14092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>218</v>
       </c>
@@ -14146,7 +14144,7 @@
       <c r="Q198" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R198" s="3" t="s">
+      <c r="R198" s="7" t="s">
         <v>237</v>
       </c>
       <c r="S198" s="1" t="s">
@@ -14160,14 +14158,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U198" xr:uid="{9054FFFE-B552-4315-B5E3-344121C87A6F}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Densificación Residencial"/>
-        <filter val="Residencial"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
